--- a/Works Done.xlsx
+++ b/Works Done.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anara\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anara\OneDrive\Desktop\Repositories\Projects4Azer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2E7D48-8CCA-4E56-B1D7-231A17CA6AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA17E9EE-6176-462C-93AC-62FD7C460B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="44">
   <si>
     <t>Status</t>
   </si>
@@ -324,24 +324,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -367,11 +355,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -444,21 +441,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -543,15 +530,8 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
@@ -567,29 +547,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -872,7 +835,7 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,1477 +867,1517 @@
       <c r="A1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="15" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="15" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="15" t="s">
+      <c r="O1" s="12"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="15" t="s">
+      <c r="R1" s="12"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="17"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="13"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(C3="+","Düzgündür","Bilinmir")</f>
         <v>Düzgündür</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="str">
+      <c r="E3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="str">
         <f>IF(F3="+","Düzgündür","Bilinmir")</f>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="4" t="str">
         <f>IF(I3="+","Düzgündür","Bilinmir")</f>
         <v>Bilinmir</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8" t="str">
+      <c r="K3" s="2"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="4" t="str">
         <f>IF(L3="+","Düzgündür","Bilinmir")</f>
         <v>Bilinmir</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="8" t="str">
+      <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="4" t="str">
         <f>IF(O3="+","Düzgündür","Bilinmir")</f>
         <v>Bilinmir</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="8" t="str">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="4" t="str">
         <f>IF(R3="+","Düzgündür","Bilinmir")</f>
         <v>Bilinmir</v>
       </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="8" t="str">
+      <c r="T3" s="2"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="4" t="str">
         <f>IF(U3="+","Düzgündür","Bilinmir")</f>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="str">
         <f t="shared" ref="D4:D29" si="0">IF(C4="+","Düzgündür","Bilinmir")</f>
         <v>Düzgündür</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8" t="str">
+      <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="str">
         <f t="shared" ref="G4:G29" si="1">IF(F4="+","Düzgündür","Bilinmir")</f>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4" t="str">
         <f t="shared" ref="J4:J29" si="2">IF(I4="+","Düzgündür","Bilinmir")</f>
         <v>Bilinmir</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8" t="str">
+      <c r="K4" s="2"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="4" t="str">
         <f t="shared" ref="M4:M29" si="3">IF(L4="+","Düzgündür","Bilinmir")</f>
         <v>Bilinmir</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="8" t="str">
+      <c r="N4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="4" t="str">
         <f t="shared" ref="P4:P29" si="4">IF(O4="+","Düzgündür","Bilinmir")</f>
         <v>Bilinmir</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="8" t="str">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="4" t="str">
         <f t="shared" ref="S4:S29" si="5">IF(R4="+","Düzgündür","Bilinmir")</f>
         <v>Bilinmir</v>
       </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="8" t="str">
+      <c r="T4" s="2"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="4" t="str">
         <f t="shared" ref="V4:V29" si="6">IF(U4="+","Düzgündür","Bilinmir")</f>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="str">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8" t="str">
+      <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8" t="str">
+      <c r="K5" s="2"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="8" t="str">
+      <c r="N5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="8" t="str">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="8" t="str">
+      <c r="T5" s="2"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8" t="str">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8" t="str">
+      <c r="E6" s="2"/>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8" t="str">
+      <c r="K6" s="2"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="8" t="str">
+      <c r="N6" s="2"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="8" t="str">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T6" s="5"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="8" t="str">
+      <c r="T6" s="2"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="8" t="str">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8" t="str">
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Bilinmir</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="8" t="str">
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8" t="str">
+      <c r="K7" s="2"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="8" t="str">
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="8" t="str">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="8" t="str">
+      <c r="T7" s="2"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8" t="str">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8" t="str">
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Bilinmir</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8" t="str">
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8" t="str">
+      <c r="K8" s="2"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="8" t="str">
+      <c r="N8" s="2"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="8" t="str">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="8" t="str">
+      <c r="T8" s="2"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8" t="str">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8" t="str">
+      <c r="E9" s="2"/>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8" t="str">
+      <c r="K9" s="2"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="8" t="str">
+      <c r="N9" s="2"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="8" t="str">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="8" t="str">
+      <c r="T9" s="2"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8" t="str">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8" t="str">
+      <c r="E10" s="2"/>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8" t="str">
+      <c r="K10" s="2"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="8" t="str">
+      <c r="N10" s="2"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="8" t="str">
+      <c r="Q10" s="2"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T10" s="5"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="8" t="str">
+      <c r="T10" s="2"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="8" t="str">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8" t="str">
+      <c r="E11" s="2"/>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8" t="str">
+      <c r="K11" s="2"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="8" t="str">
+      <c r="N11" s="2"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="8" t="str">
+      <c r="Q11" s="2"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T11" s="5"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="8" t="str">
+      <c r="T11" s="2"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="8" t="str">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="8" t="str">
+      <c r="E12" s="2"/>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="8" t="str">
+      <c r="H12" s="2"/>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="8" t="str">
+      <c r="K12" s="2"/>
+      <c r="L12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P12" s="8" t="str">
+      <c r="N12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S12" s="8" t="str">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T12" s="5"/>
-      <c r="U12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="V12" s="8" t="str">
+      <c r="T12" s="2"/>
+      <c r="U12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V12" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Düzgündür</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="8" t="str">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="8" t="str">
+      <c r="E13" s="2"/>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="8" t="str">
+      <c r="H13" s="2"/>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="8" t="str">
+      <c r="K13" s="2"/>
+      <c r="L13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" s="8" t="str">
+      <c r="N13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S13" s="8" t="str">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="V13" s="8" t="str">
+      <c r="T13" s="2"/>
+      <c r="U13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V13" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Düzgündür</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="8" t="str">
+      <c r="D14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Bilinmir</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8" t="str">
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Bilinmir</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="8" t="str">
+      <c r="H14" s="2"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8" t="str">
+      <c r="K14" s="2"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="8" t="str">
+      <c r="N14" s="2"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="8" t="str">
+      <c r="Q14" s="2"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T14" s="5"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="8" t="str">
+      <c r="T14" s="2"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="8" t="str">
+      <c r="B15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8" t="str">
+      <c r="E15" s="2"/>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8" t="str">
+      <c r="K15" s="2"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="8" t="str">
+      <c r="N15" s="2"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="8" t="str">
+      <c r="Q15" s="2"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T15" s="5"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="8" t="str">
+      <c r="T15" s="2"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="8" t="str">
+      <c r="B16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8" t="str">
+      <c r="E16" s="2"/>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8" t="str">
+      <c r="K16" s="2"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="8" t="str">
+      <c r="N16" s="2"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="8" t="str">
+      <c r="Q16" s="2"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T16" s="5"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="8" t="str">
+      <c r="T16" s="2"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="8" t="str">
+      <c r="B17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="8" t="str">
+      <c r="E17" s="2"/>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8" t="str">
+      <c r="K17" s="2"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="8" t="str">
+      <c r="N17" s="2"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="8" t="str">
+      <c r="Q17" s="2"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T17" s="5"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="8" t="str">
+      <c r="T17" s="2"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="8" t="str">
+      <c r="B18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8" t="str">
+      <c r="E18" s="2"/>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8" t="str">
+      <c r="K18" s="2"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="8" t="str">
+      <c r="N18" s="2"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="8" t="str">
+      <c r="Q18" s="2"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T18" s="5"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="8" t="str">
+      <c r="T18" s="2"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="8" t="str">
+      <c r="B19" s="2"/>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8" t="str">
+      <c r="E19" s="2"/>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8" t="str">
+      <c r="K19" s="2"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="8" t="str">
+      <c r="N19" s="2"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="8" t="str">
+      <c r="Q19" s="2"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T19" s="5"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="8" t="str">
+      <c r="T19" s="2"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="8" t="str">
+      <c r="B20" s="2"/>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8" t="str">
+      <c r="E20" s="2"/>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8" t="str">
+      <c r="K20" s="2"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="8" t="str">
+      <c r="N20" s="2"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="8" t="str">
+      <c r="Q20" s="2"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T20" s="5"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="8" t="str">
+      <c r="T20" s="2"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="8" t="str">
+      <c r="B21" s="2"/>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="8" t="str">
+      <c r="E21" s="2"/>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8" t="str">
+      <c r="K21" s="2"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="8" t="str">
+      <c r="N21" s="2"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="8" t="str">
+      <c r="Q21" s="2"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T21" s="5"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="8" t="str">
+      <c r="T21" s="2"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="8" t="str">
+      <c r="B22" s="2"/>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8" t="str">
+      <c r="E22" s="2"/>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8" t="str">
+      <c r="K22" s="2"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="8" t="str">
+      <c r="N22" s="2"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="8" t="str">
+      <c r="Q22" s="2"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T22" s="5"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="8" t="str">
+      <c r="T22" s="2"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="8" t="str">
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8" t="str">
+      <c r="E23" s="2"/>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8" t="str">
+      <c r="K23" s="2"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N23" s="5"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="8" t="str">
+      <c r="N23" s="2"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="8" t="str">
+      <c r="Q23" s="2"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T23" s="5"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="8" t="str">
+      <c r="T23" s="2"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="8" t="str">
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="8" t="str">
+      <c r="E24" s="2"/>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8" t="str">
+      <c r="K24" s="2"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N24" s="5"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="8" t="str">
+      <c r="N24" s="2"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="8" t="str">
+      <c r="Q24" s="2"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T24" s="5"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="8" t="str">
+      <c r="T24" s="2"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="8" t="str">
+      <c r="B25" s="2"/>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8" t="str">
+      <c r="E25" s="2"/>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8" t="str">
+      <c r="K25" s="2"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="8" t="str">
+      <c r="N25" s="2"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="8" t="str">
+      <c r="Q25" s="2"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T25" s="5"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="8" t="str">
+      <c r="T25" s="2"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="8" t="str">
+      <c r="B26" s="2"/>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="8" t="str">
+      <c r="E26" s="2"/>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8" t="str">
+      <c r="K26" s="2"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="8" t="str">
+      <c r="N26" s="2"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="8" t="str">
+      <c r="Q26" s="2"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T26" s="5"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="8" t="str">
+      <c r="T26" s="2"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="8" t="str">
+      <c r="B27" s="2"/>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="8" t="str">
+      <c r="E27" s="2"/>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="8" t="str">
+      <c r="H27" s="2"/>
+      <c r="I27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M27" s="8" t="str">
+      <c r="K27" s="2"/>
+      <c r="L27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N27" s="5"/>
-      <c r="O27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P27" s="8" t="str">
+      <c r="N27" s="2"/>
+      <c r="O27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S27" s="8" t="str">
+      <c r="Q27" s="2"/>
+      <c r="R27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S27" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T27" s="5"/>
-      <c r="U27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="V27" s="8" t="str">
+      <c r="T27" s="2"/>
+      <c r="U27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V27" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Düzgündür</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="8" t="str">
+      <c r="B28" s="2"/>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="8" t="str">
+      <c r="E28" s="2"/>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Bilinmir</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="8" t="str">
+        <v>Düzgündür</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Bilinmir</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8" t="str">
+      <c r="K28" s="2"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Bilinmir</v>
       </c>
-      <c r="N28" s="5"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="8" t="str">
+      <c r="N28" s="2"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="8" t="str">
+      <c r="Q28" s="2"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
       </c>
-      <c r="T28" s="5"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="8" t="str">
+      <c r="T28" s="2"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="4" t="str">
         <f t="shared" si="6"/>
         <v>Bilinmir</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="11" t="str">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Düzgündür</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="11" t="str">
+      <c r="E29" s="5"/>
+      <c r="F29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Düzgündür</v>
       </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="11" t="str">
+      <c r="H29" s="5"/>
+      <c r="I29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="7" t="str">
         <f t="shared" si="2"/>
         <v>Düzgündür</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M29" s="11" t="str">
+      <c r="K29" s="5"/>
+      <c r="L29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="7" t="str">
         <f t="shared" si="3"/>
         <v>Düzgündür</v>
       </c>
-      <c r="N29" s="9"/>
-      <c r="O29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="P29" s="11" t="str">
+      <c r="N29" s="5"/>
+      <c r="O29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P29" s="7" t="str">
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S29" s="11" t="str">
+      <c r="Q29" s="5"/>
+      <c r="R29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S29" s="7" t="str">
         <f t="shared" si="5"/>
         <v>Düzgündür</v>
       </c>
-      <c r="T29" s="9"/>
-      <c r="U29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="V29" s="11" t="str">
+      <c r="T29" s="5"/>
+      <c r="U29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V29" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Düzgündür</v>
       </c>
@@ -2390,41 +2393,46 @@
     <mergeCell ref="N1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"Düzgündür"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576 J1:J1048576 M1:M1048576 P1:P1048576 S1:S1048576 V1:V1048576">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>"Bilinmir"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G2:G29">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>"Düzgündür"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J29">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"Düzgündür"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M29">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"Düzgündür"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P29">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"Düzgündür"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S29">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"Düzgündür"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V29">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Düzgündür"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576 J1:J1048576 M1:M1048576 P1:P1048576 S1:S1048576 V1:V1048576">
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Bilinmir"</formula>
     </cfRule>
@@ -2521,11 +2529,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
-      <formula>"Not working"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"Working"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+      <formula>"Not working"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Works Done.xlsx
+++ b/Works Done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anara\OneDrive\Desktop\Repositories\Projects4Azer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA17E9EE-6176-462C-93AC-62FD7C460B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89094E3E-0487-41E4-A0CB-90C1567B3923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="44">
   <si>
     <t>Status</t>
   </si>
@@ -368,11 +368,8 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="11">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -381,77 +378,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
@@ -540,19 +467,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -835,20 +755,21 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
@@ -992,10 +913,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="4" t="str">
         <f>IF(I3="+","Düzgündür","Bilinmir")</f>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
@@ -1043,10 +966,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="4" t="str">
         <f t="shared" ref="J4:J29" si="2">IF(I4="+","Düzgündür","Bilinmir")</f>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="1"/>
@@ -1094,10 +1019,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="1"/>
@@ -1145,10 +1072,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J6" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
@@ -1194,10 +1123,12 @@
         <v>Bilinmir</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J7" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="1"/>
@@ -1243,10 +1174,12 @@
         <v>Bilinmir</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J8" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="1"/>
@@ -1294,10 +1227,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J9" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="1"/>
@@ -1345,10 +1280,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J10" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
@@ -1396,10 +1333,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J11" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="1"/>
@@ -1567,10 +1506,12 @@
         <v>Bilinmir</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J14" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="1"/>
@@ -1618,10 +1559,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J15" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="1"/>
@@ -1669,10 +1612,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J16" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="1"/>
@@ -1720,10 +1665,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J17" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="1"/>
@@ -1771,10 +1718,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J18" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="1"/>
@@ -1822,10 +1771,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J19" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="1"/>
@@ -1873,10 +1824,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J20" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="1"/>
@@ -1924,10 +1877,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J21" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="1"/>
@@ -1975,10 +1930,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J22" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="1"/>
@@ -2026,10 +1983,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J23" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="1"/>
@@ -2077,10 +2036,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J24" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="1"/>
@@ -2128,10 +2089,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J25" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="1"/>
@@ -2179,10 +2142,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J26" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="1"/>
@@ -2291,10 +2256,12 @@
         <v>Düzgündür</v>
       </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J28" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="1"/>
@@ -2392,49 +2359,49 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
   </mergeCells>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"Bilinmir"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"Düzgündür"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576 J1:J1048576 M1:M1048576 P1:P1048576 S1:S1048576 V1:V1048576">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Bilinmir"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G29">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"Düzgündür"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J29">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Düzgündür"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M29">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Düzgündür"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P29">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Düzgündür"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S29">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Düzgündür"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V29">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Düzgündür"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Bilinmir"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2529,10 +2496,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Working"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Not working"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Works Done.xlsx
+++ b/Works Done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anara\OneDrive\Desktop\Repositories\Projects4Azer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D48B8E7-DA1A-4E13-8AAC-29E1E005E7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7754B15-F826-44F6-AD1F-4686F9C2573A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="46">
   <si>
     <t>BotName</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Working</t>
+  </si>
+  <si>
+    <t>Qalib</t>
   </si>
 </sst>
 </file>
@@ -699,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,13 +884,13 @@
         <f t="shared" ref="P3:P29" si="4">IF(O3="+","Düzgündür","Bilinmir")</f>
         <v>Düzgündür</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="1"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S3" s="6" t="str">
         <f t="shared" ref="S3:S29" si="5">IF(R3="+","Düzgündür","Bilinmir")</f>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>21</v>
@@ -942,13 +945,13 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="1"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S4" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>13</v>
@@ -1003,13 +1006,13 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R5" s="1"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S5" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>13</v>
@@ -1064,13 +1067,13 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R6" s="1"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S6" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>13</v>
@@ -1122,10 +1125,12 @@
         <v>Bilinmir</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S7" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>21</v>
@@ -1179,12 +1184,14 @@
         <v>Düzgündür</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S8" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>13</v>
@@ -1239,13 +1246,13 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S9" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>13</v>
@@ -1300,13 +1307,13 @@
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10" s="1"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S10" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>13</v>
@@ -1361,13 +1368,13 @@
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S11" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>13</v>
@@ -1422,9 +1429,7 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="Q12" s="3"/>
       <c r="R12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1487,9 +1492,7 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q13" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="Q13" s="3"/>
       <c r="R13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1550,10 +1553,10 @@
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R14" s="1"/>
       <c r="S14" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Bilinmir</v>
@@ -1611,13 +1614,13 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R15" s="1"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S15" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>13</v>
@@ -1672,13 +1675,13 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S16" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>13</v>
@@ -1733,13 +1736,13 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R17" s="1"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S17" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>13</v>
@@ -1792,13 +1795,13 @@
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S18" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>13</v>
@@ -1853,13 +1856,13 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R19" s="1"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S19" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>13</v>
@@ -1914,13 +1917,13 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S20" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>13</v>
@@ -1975,13 +1978,13 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R21" s="1"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S21" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>13</v>
@@ -2036,13 +2039,13 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R22" s="1"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S22" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>13</v>
@@ -2097,13 +2100,13 @@
         <f t="shared" si="4"/>
         <v>Bilinmir</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R23" s="1"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S23" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>13</v>
@@ -2158,13 +2161,13 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R24" s="1"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S24" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>13</v>
@@ -2219,13 +2222,13 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R25" s="1"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S25" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T25" s="3" t="s">
         <v>13</v>
@@ -2282,13 +2285,13 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R26" s="1"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S26" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>13</v>
@@ -2345,9 +2348,7 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="Q27" s="3"/>
       <c r="R27" s="1" t="s">
         <v>13</v>
       </c>
@@ -2410,13 +2411,13 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R28" s="1"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S28" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>Bilinmir</v>
+        <v>Düzgündür</v>
       </c>
       <c r="T28" s="3" t="s">
         <v>13</v>
@@ -2471,9 +2472,7 @@
         <f t="shared" si="4"/>
         <v>Düzgündür</v>
       </c>
-      <c r="Q29" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="Q29" s="8"/>
       <c r="R29" s="9" t="s">
         <v>13</v>
       </c>
